--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/123.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/123.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1478375572372971</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.607035632248931</v>
+        <v>-1.606495743690325</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04116127289141341</v>
+        <v>-0.04187430355336262</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1521847116123574</v>
+        <v>-0.1507161517721839</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1404452134466857</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.590580836354853</v>
+        <v>-1.589479022969943</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.07041441826078669</v>
+        <v>-0.07137456992478011</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1270004056715464</v>
+        <v>-0.1253350934412103</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1473632959029115</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.639059051271793</v>
+        <v>-1.63789349011247</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1180253486418899</v>
+        <v>-0.1190028145162176</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1217085533857335</v>
+        <v>-0.1202274013925896</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1648806153422707</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.732851702671859</v>
+        <v>-1.731642068977139</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1456934567561134</v>
+        <v>-0.1465575932537075</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1332350954110184</v>
+        <v>-0.1315036743775877</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1791510116104765</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.760818087409569</v>
+        <v>-1.760264032678871</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1083703153518315</v>
+        <v>-0.1089275181207719</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1227773123690967</v>
+        <v>-0.1212158854007664</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1783289484007496</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.618448057887921</v>
+        <v>-1.618732955348877</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04376784855628735</v>
+        <v>-0.04440375228129283</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1229992490652001</v>
+        <v>-0.1216235563531833</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.158478159911234</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.332830483184502</v>
+        <v>-1.332415729146039</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.00461254889481144</v>
+        <v>-0.006364432176819105</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1197363074267438</v>
+        <v>-0.117874242806245</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1203789468852369</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9156170398447383</v>
+        <v>-0.9143538894998945</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00186453978934089</v>
+        <v>-0.001508583187606484</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07970585313382465</v>
+        <v>-0.07778397578671652</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.06630788799973171</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3953974241783758</v>
+        <v>-0.3925012289951825</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.04157209188207289</v>
+        <v>-0.04578259303155223</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03199261150983691</v>
+        <v>-0.03012739885109559</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.0008465740397401441</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1641411891380779</v>
+        <v>0.1682478050255514</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.09444811622392689</v>
+        <v>-0.1003081894125293</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05008461557038746</v>
+        <v>0.05192149588494537</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.07966552782700255</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8365117891458501</v>
+        <v>0.8426457416615589</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2180731520300042</v>
+        <v>-0.2252349390319223</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1288815868018212</v>
+        <v>0.1311654885468285</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1689597185197941</v>
       </c>
       <c r="E13" t="n">
-        <v>1.524879145483401</v>
+        <v>1.532264443200544</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4181357044046856</v>
+        <v>-0.4264465253651532</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2472761570678163</v>
+        <v>0.2497206087631963</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2658717817653342</v>
       </c>
       <c r="E14" t="n">
-        <v>2.243200085699304</v>
+        <v>2.252127922155322</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6466313381865425</v>
+        <v>-0.6556772260766576</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3664089423017015</v>
+        <v>0.369290971312803</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3674752378122814</v>
       </c>
       <c r="E15" t="n">
-        <v>2.97063617064666</v>
+        <v>2.980865720915993</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8903414407948919</v>
+        <v>-0.900382108769669</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4779801396768582</v>
+        <v>0.4809770720838146</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4686848131334381</v>
       </c>
       <c r="E16" t="n">
-        <v>3.590856369127498</v>
+        <v>3.601315726188541</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.165956910992006</v>
+        <v>-1.178008388394245</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6192814102151422</v>
+        <v>0.6233880261026157</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5621381144924806</v>
       </c>
       <c r="E17" t="n">
-        <v>4.181404733152696</v>
+        <v>4.192799057571792</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.413858626520379</v>
+        <v>-1.427541574741846</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7678200206731668</v>
+        <v>0.772213108040717</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.6444214992333662</v>
       </c>
       <c r="E18" t="n">
-        <v>4.710866989099336</v>
+        <v>4.721966971942749</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.652520062797157</v>
+        <v>-1.666943587015196</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9022034771733343</v>
+        <v>0.9071883957304936</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7164667572305273</v>
       </c>
       <c r="E19" t="n">
-        <v>5.139813957978836</v>
+        <v>5.151162635843414</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.936408577495828</v>
+        <v>-1.951996088854068</v>
       </c>
       <c r="G19" t="n">
-        <v>1.04580596366696</v>
+        <v>1.05138428743285</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7773651400777758</v>
       </c>
       <c r="E20" t="n">
-        <v>5.477189216438425</v>
+        <v>5.488604003106098</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.187711748345331</v>
+        <v>-2.204123258713573</v>
       </c>
       <c r="G20" t="n">
-        <v>1.196570237162504</v>
+        <v>1.202082452125299</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8246024270467814</v>
       </c>
       <c r="E21" t="n">
-        <v>5.761798631894652</v>
+        <v>5.773216566600567</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.407621107820493</v>
+        <v>-2.424738565764638</v>
       </c>
       <c r="G21" t="n">
-        <v>1.334221357358492</v>
+        <v>1.33970209193886</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.8583685292247686</v>
       </c>
       <c r="E22" t="n">
-        <v>5.969923310208635</v>
+        <v>5.980664416692391</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.612583581719783</v>
+        <v>-2.6301016275303</v>
       </c>
       <c r="G22" t="n">
-        <v>1.448534496042954</v>
+        <v>1.454285961912187</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.8812568395708323</v>
       </c>
       <c r="E23" t="n">
-        <v>6.106546595918414</v>
+        <v>6.118120358517338</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.73494861521926</v>
+        <v>-2.751917328356442</v>
       </c>
       <c r="G23" t="n">
-        <v>1.548043984891583</v>
+        <v>1.553682121384083</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8944102456899636</v>
       </c>
       <c r="E24" t="n">
-        <v>6.209215141143494</v>
+        <v>6.221302033975961</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.811645844942878</v>
+        <v>-2.827617416966716</v>
       </c>
       <c r="G24" t="n">
-        <v>1.595993329383766</v>
+        <v>1.601488230136227</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8952173080135393</v>
       </c>
       <c r="E25" t="n">
-        <v>6.226702493581144</v>
+        <v>6.239025489281807</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.889511783864063</v>
+        <v>-2.905510114212963</v>
       </c>
       <c r="G25" t="n">
-        <v>1.648998423293567</v>
+        <v>1.653962879602149</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8809513082697945</v>
       </c>
       <c r="E26" t="n">
-        <v>6.216406834508716</v>
+        <v>6.228424470499847</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.952449725438831</v>
+        <v>-2.967807430005362</v>
       </c>
       <c r="G26" t="n">
-        <v>1.667560830791066</v>
+        <v>1.672555193462953</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.8519705414080343</v>
       </c>
       <c r="E27" t="n">
-        <v>6.1207851728897</v>
+        <v>6.132807530938194</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.968955676954351</v>
+        <v>-2.983335128636993</v>
       </c>
       <c r="G27" t="n">
-        <v>1.674338557127387</v>
+        <v>1.679216442384297</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.8106532629840392</v>
       </c>
       <c r="E28" t="n">
-        <v>5.959382104153285</v>
+        <v>5.970713467807528</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.979949413507076</v>
+        <v>-2.993792911678915</v>
       </c>
       <c r="G28" t="n">
-        <v>1.661426878275357</v>
+        <v>1.665790059279603</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7603294793921549</v>
       </c>
       <c r="E29" t="n">
-        <v>5.790546517126088</v>
+        <v>5.801599279395861</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.939436522353478</v>
+        <v>-2.952465465630044</v>
       </c>
       <c r="G29" t="n">
-        <v>1.624689271984199</v>
+        <v>1.628910791267528</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7050914299805366</v>
       </c>
       <c r="E30" t="n">
-        <v>5.60019408871071</v>
+        <v>5.610462989458076</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.913300721853841</v>
+        <v>-2.925590663152956</v>
       </c>
       <c r="G30" t="n">
-        <v>1.556351657813808</v>
+        <v>1.560182820355054</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.6481752905002106</v>
       </c>
       <c r="E31" t="n">
-        <v>5.362565995987067</v>
+        <v>5.37251851889105</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.816930614142645</v>
+        <v>-2.827981015383737</v>
       </c>
       <c r="G31" t="n">
-        <v>1.481806112229008</v>
+        <v>1.485619960559919</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.5914122748388942</v>
       </c>
       <c r="E32" t="n">
-        <v>5.131029357262856</v>
+        <v>5.14087169882835</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.755140919516866</v>
+        <v>-2.766059103151768</v>
       </c>
       <c r="G32" t="n">
-        <v>1.409029764136549</v>
+        <v>1.412670470364118</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.5350861121334253</v>
       </c>
       <c r="E33" t="n">
-        <v>4.837474791140279</v>
+        <v>4.847112510220002</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.633876912392739</v>
+        <v>-2.643928598501365</v>
       </c>
       <c r="G33" t="n">
-        <v>1.336100736189324</v>
+        <v>1.339535245912003</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.4785703912250666</v>
       </c>
       <c r="E34" t="n">
-        <v>4.581085964509852</v>
+        <v>4.58945659819693</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.558353900933611</v>
+        <v>-2.567994768051578</v>
       </c>
       <c r="G34" t="n">
-        <v>1.235925437252385</v>
+        <v>1.239196248986448</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.4218172746983466</v>
       </c>
       <c r="E35" t="n">
-        <v>4.271054566225498</v>
+        <v>4.278304498298209</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.486830472061708</v>
+        <v>-2.495952699879206</v>
       </c>
       <c r="G35" t="n">
-        <v>1.144659086542007</v>
+        <v>1.147718979713816</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.3660495613903852</v>
       </c>
       <c r="E36" t="n">
-        <v>3.933852449869252</v>
+        <v>3.940285466018008</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.391881703617047</v>
+        <v>-2.400679683495557</v>
       </c>
       <c r="G36" t="n">
-        <v>1.06762501672643</v>
+        <v>1.069956139045076</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.3127387491612405</v>
       </c>
       <c r="E37" t="n">
-        <v>3.652280891317136</v>
+        <v>3.658107910104191</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.323810885687717</v>
+        <v>-2.33252859059104</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9803865809474608</v>
+        <v>0.9828766791973584</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.2628069799410166</v>
       </c>
       <c r="E38" t="n">
-        <v>3.357523774585884</v>
+        <v>3.361661870855783</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.256689201288531</v>
+        <v>-2.265216449878177</v>
       </c>
       <c r="G38" t="n">
-        <v>0.892381597856418</v>
+        <v>0.8944624511347775</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.216569114480215</v>
       </c>
       <c r="E39" t="n">
-        <v>3.041936088803338</v>
+        <v>3.045307637761165</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.180908050693509</v>
+        <v>-2.189055960674922</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8052265850908776</v>
+        <v>0.8069737463155214</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.1733465157844109</v>
       </c>
       <c r="E40" t="n">
-        <v>2.760624243406237</v>
+        <v>2.764387723125267</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.106294035276932</v>
+        <v>-2.114757536092166</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7389525099885121</v>
+        <v>0.7405831937981797</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.132763013316574</v>
       </c>
       <c r="E41" t="n">
-        <v>2.465045488693666</v>
+        <v>2.468404445498522</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.048795903785379</v>
+        <v>-2.05651804159448</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6819856099503977</v>
+        <v>0.6833282482608671</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.09458021854276834</v>
       </c>
       <c r="E42" t="n">
-        <v>2.191962615262725</v>
+        <v>2.194421233130196</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.965405944757989</v>
+        <v>-1.972526020253193</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6116175111135291</v>
+        <v>0.6125021098597001</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.05829839402678004</v>
       </c>
       <c r="E43" t="n">
-        <v>1.940406027334691</v>
+        <v>1.942496324727778</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.901598357618702</v>
+        <v>-1.908890001198128</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5403585174540044</v>
+        <v>0.5414020921314268</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.02360303966075412</v>
       </c>
       <c r="E44" t="n">
-        <v>1.737352838629538</v>
+        <v>1.739790994248433</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.850817352727299</v>
+        <v>-1.857939789251185</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4733603935558406</v>
+        <v>0.4746117387572746</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.00941970214875832</v>
       </c>
       <c r="E45" t="n">
-        <v>1.528249120422106</v>
+        <v>1.529797955237466</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.766013924528982</v>
+        <v>-1.773143444138914</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4230956669362245</v>
+        <v>0.4241785920916794</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.04155143680366903</v>
       </c>
       <c r="E46" t="n">
-        <v>1.331010358351038</v>
+        <v>1.332892885220114</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.707433654891535</v>
+        <v>-1.714414429694503</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3728419584504574</v>
+        <v>0.3735770253801048</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.07323639552906501</v>
       </c>
       <c r="E47" t="n">
-        <v>1.177914962536848</v>
+        <v>1.179427594912418</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.676737133987928</v>
+        <v>-1.683454260588079</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3232273017279384</v>
+        <v>0.3243936498968222</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.1043387093901758</v>
       </c>
       <c r="E48" t="n">
-        <v>1.002731356393445</v>
+        <v>1.003830021740113</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.61372678753358</v>
+        <v>-1.620585575854648</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2535549193426848</v>
+        <v>0.2543450769415777</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.1349481377271814</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8561838801238661</v>
+        <v>0.8573407841780221</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.563458125866161</v>
+        <v>-1.57024687033633</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2189312207314335</v>
+        <v>0.2198048013437554</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1652137213628954</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7564256962540711</v>
+        <v>0.7576046365759254</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.511164488599188</v>
+        <v>-1.518303452323847</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1765602000051403</v>
+        <v>0.1775675722427728</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1955985131592784</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6419016390073544</v>
+        <v>0.6429105852641082</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.473587930116377</v>
+        <v>-1.480790641615448</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1422890816770604</v>
+        <v>0.1433783029090005</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2261624611816129</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5321846361570899</v>
+        <v>0.5339192052287632</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.430625078200474</v>
+        <v>-1.437567289534971</v>
       </c>
       <c r="G52" t="n">
-        <v>0.104607063913122</v>
+        <v>0.1051705627585476</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2557188624437063</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4613411835455886</v>
+        <v>0.4636707318451136</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.392000222982877</v>
+        <v>-1.398859011303945</v>
       </c>
       <c r="G53" t="n">
-        <v>0.071675435857269</v>
+        <v>0.07251438804892227</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2832657590899378</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3675689943941001</v>
+        <v>0.3703927846977135</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.337844521095405</v>
+        <v>-1.345307732759052</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04144482461356799</v>
+        <v>0.04221766800212663</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.3091972349119954</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2753346219241224</v>
+        <v>0.278520436625635</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.306142201973288</v>
+        <v>-1.313726613109276</v>
       </c>
       <c r="G55" t="n">
-        <v>0.008480142156167681</v>
+        <v>0.008813834209883426</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3339990533505265</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2095626589214518</v>
+        <v>0.2133025283536623</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.285638241889665</v>
+        <v>-1.293423340463618</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.0102506853873105</v>
+        <v>-0.009465249845781461</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3581754227544954</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1331078281425135</v>
+        <v>0.1371105587679812</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.292913358268316</v>
+        <v>-1.300544202968382</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04615563556330049</v>
+        <v>-0.04531668337164722</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3822265303857538</v>
       </c>
       <c r="E58" t="n">
-        <v>0.06909404449833587</v>
+        <v>0.07325889909329748</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.274314748331028</v>
+        <v>-1.28171106418202</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07666484819147172</v>
+        <v>-0.07573145485254042</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4059375996605787</v>
       </c>
       <c r="E59" t="n">
-        <v>0.03022836435517929</v>
+        <v>0.03481348205552819</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.283683310141009</v>
+        <v>-1.291455816561992</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1009362230419283</v>
+        <v>-0.100180693863704</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4286981805389163</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.02655909750310693</v>
+        <v>-0.0212168766054124</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.289450516201455</v>
+        <v>-1.296798037459687</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1066798188155545</v>
+        <v>-0.1056441142337387</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.450842008391062</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.06640853959707645</v>
+        <v>-0.06067438793817804</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.270416689977126</v>
+        <v>-1.277498202003858</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1373291191455215</v>
+        <v>-0.1364760007817765</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4729051555410724</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.1210395952591807</v>
+        <v>-0.115110265229241</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.294377196051126</v>
+        <v>-1.301677496735719</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1454888342703443</v>
+        <v>-0.1445003502621675</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4952520592445622</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1652128678793632</v>
+        <v>-0.1592032628742372</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.332882425815505</v>
+        <v>-1.340695069724081</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1635475556490271</v>
+        <v>-0.1627936004899241</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5178689533121245</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2238686904346333</v>
+        <v>-0.2167194955856856</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.373241063095215</v>
+        <v>-1.381200090782072</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.180586312637107</v>
+        <v>-0.1794514448506492</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.5406696361447754</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.279590541347799</v>
+        <v>-0.2716763732058992</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.405865757422414</v>
+        <v>-1.413982187021401</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2056053465701815</v>
+        <v>-0.204582234141336</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.563180189413647</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3449752956466295</v>
+        <v>-0.3375238891263921</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.449518029713446</v>
+        <v>-1.457262990799806</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2119203112848398</v>
+        <v>-0.2108153498616867</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5847173062350312</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.335523310823219</v>
+        <v>-0.3272030457480235</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.496375791945007</v>
+        <v>-1.504012932721558</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2451840573752873</v>
+        <v>-0.2441027062389537</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.605040937540806</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.3593712745300456</v>
+        <v>-0.3519088498759591</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.525090622774896</v>
+        <v>-1.533234597708505</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2552955562105229</v>
+        <v>-0.2542488334948579</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6238900025527423</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3876154736426652</v>
+        <v>-0.3799956470764486</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.582764257398474</v>
+        <v>-1.591396965269248</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2602411242896496</v>
+        <v>-0.2594068941553603</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6411590941740121</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.4135301244557597</v>
+        <v>-0.406092884107614</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.601485640827225</v>
+        <v>-1.610031777646327</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2706406686240833</v>
+        <v>-0.2697592179161549</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6562081053129459</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.4186519826764721</v>
+        <v>-0.4115484343820421</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.637442533634218</v>
+        <v>-1.646578927623807</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2887245743087069</v>
+        <v>-0.2880146916850003</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6684267070109025</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.4158281923728587</v>
+        <v>-0.4090599101512657</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.669467526676201</v>
+        <v>-1.678814839228045</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2857827325709959</v>
+        <v>-0.2853042307581205</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6771505051078605</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.3749556378500438</v>
+        <v>-0.3685100295483175</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.695577355860337</v>
+        <v>-1.704635835903423</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2867743646174153</v>
+        <v>-0.2866012225140723</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6819822434703858</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.3337950378280308</v>
+        <v>-0.3272172119201152</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.728106035021137</v>
+        <v>-1.737115720471462</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2918301140350331</v>
+        <v>-0.2916113253771723</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6827011224725489</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2679254856398396</v>
+        <v>-0.2620496722600241</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.747268930813412</v>
+        <v>-1.756314818703527</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2942399373097445</v>
+        <v>-0.2943154902275669</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.679149236318371</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1597557435858137</v>
+        <v>-0.1540971448447378</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.755487671655284</v>
+        <v>-1.764598094329372</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.276261490906248</v>
+        <v>-0.2766313853997537</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6713737564057337</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.07168779972991896</v>
+        <v>-0.06640853959707645</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.741887359437685</v>
+        <v>-1.750916720127027</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2618481978124976</v>
+        <v>-0.2625140079008078</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6593572805780169</v>
       </c>
       <c r="E78" t="n">
-        <v>0.06543445004131176</v>
+        <v>0.07023206032303626</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.746000271401644</v>
+        <v>-1.754901349532599</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2326517171314912</v>
+        <v>-0.2336527932926384</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6430957964499703</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1933439658955696</v>
+        <v>0.1981163918713532</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.774874078162784</v>
+        <v>-1.783871958469699</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2165683897500408</v>
+        <v>-0.2174986350507295</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6222232524075844</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3394050702566669</v>
+        <v>0.3442672153223647</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.734791681238862</v>
+        <v>-1.7430190791859</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1896180343551304</v>
+        <v>-0.190699385491464</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.5972455261566432</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4712779662583598</v>
+        <v>0.4755388360197207</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.716560604766397</v>
+        <v>-1.723831786097245</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1614714244280315</v>
+        <v>-0.1624992589142408</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5687442981420754</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6468472070864811</v>
+        <v>0.6519926755940131</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.679650643381456</v>
+        <v>-1.686293791082906</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1360274053322059</v>
+        <v>-0.1369135780974982</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.5369461094134059</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8223534871497504</v>
+        <v>0.8268599038940343</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.613681927988623</v>
+        <v>-1.619442050963023</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1149623074318388</v>
+        <v>-0.1164340153102549</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.5018409326574644</v>
       </c>
       <c r="E84" t="n">
-        <v>1.00216785754802</v>
+        <v>1.00703315065196</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.537774068854337</v>
+        <v>-1.542668481312021</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.09816909742668171</v>
+        <v>-0.09993829491902369</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.463548932637747</v>
       </c>
       <c r="E85" t="n">
-        <v>1.146676979055514</v>
+        <v>1.152241136649312</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.434106808496791</v>
+        <v>-1.438440083137732</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.07632171202302818</v>
+        <v>-0.07853635692669825</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4219259366321906</v>
       </c>
       <c r="E86" t="n">
-        <v>1.310119976573135</v>
+        <v>1.315298499482215</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.320140741028576</v>
+        <v>-1.323707468357443</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04631933355191577</v>
+        <v>-0.04840963094500308</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3770419185851858</v>
       </c>
       <c r="E87" t="n">
-        <v>1.448344039729277</v>
+        <v>1.454160040382483</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.191621292764814</v>
+        <v>-1.194784284189068</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.02177093133611024</v>
+        <v>-0.02403751887078323</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.3294373722875341</v>
       </c>
       <c r="E88" t="n">
-        <v>1.542684449783555</v>
+        <v>1.547486782122643</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.048777483487655</v>
+        <v>-1.05110624477762</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.008235940912045624</v>
+        <v>-0.01035299663019505</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.2800354542667995</v>
       </c>
       <c r="E89" t="n">
-        <v>1.646547675521702</v>
+        <v>1.651556204365681</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9075037582839939</v>
+        <v>-0.9087228360934413</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01670754010320638</v>
+        <v>0.01435595553598315</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.2315036309680669</v>
       </c>
       <c r="E90" t="n">
-        <v>1.69106723234857</v>
+        <v>1.69590734114657</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7213956724292039</v>
+        <v>-0.7213122494157749</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01931568978720162</v>
+        <v>0.0167531866577241</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.187320759443848</v>
       </c>
       <c r="E91" t="n">
-        <v>1.712955542249378</v>
+        <v>1.71668596756686</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5372590455238428</v>
+        <v>-0.536867114762639</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.0003233467892670657</v>
+        <v>-0.002618266668123469</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.151475920461057</v>
       </c>
       <c r="E92" t="n">
-        <v>1.687168386985109</v>
+        <v>1.690313277189467</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3754026592804932</v>
+        <v>-0.3744377855591358</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.002701689681552405</v>
+        <v>-0.005250026638938219</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1272087757897155</v>
       </c>
       <c r="E93" t="n">
-        <v>1.645796868400841</v>
+        <v>1.648461682773203</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2238230438801156</v>
+        <v>-0.2225150339903147</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01988053437142811</v>
+        <v>-0.02195194353505982</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1163919487492902</v>
       </c>
       <c r="E94" t="n">
-        <v>1.549471620234603</v>
+        <v>1.551610712220451</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.08707698467887577</v>
+        <v>-0.08523538230695397</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.02573903354090927</v>
+        <v>-0.02788127356499951</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1179808569680254</v>
       </c>
       <c r="E95" t="n">
-        <v>1.479736277084498</v>
+        <v>1.481807686248129</v>
       </c>
       <c r="F95" t="n">
-        <v>0.02021602872458561</v>
+        <v>0.0218073620562206</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.06215239189307938</v>
+        <v>-0.06407899129755143</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1283195176824178</v>
       </c>
       <c r="E96" t="n">
-        <v>1.39663908561367</v>
+        <v>1.398463373775258</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1011017233299853</v>
+        <v>0.1030236006770935</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.09112850989710375</v>
+        <v>-0.09320306709897805</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1408375391565538</v>
       </c>
       <c r="E97" t="n">
-        <v>1.318226175047834</v>
+        <v>1.319573535415667</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1649754192723673</v>
+        <v>0.1665746226996088</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1098404492111263</v>
+        <v>-0.1121778676062578</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1502903301698802</v>
       </c>
       <c r="E98" t="n">
-        <v>1.221943425397871</v>
+        <v>1.223810212075733</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1970350407350197</v>
+        <v>0.1988609029157285</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.131343124427215</v>
+        <v>-0.1334853644513053</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1549219008592571</v>
       </c>
       <c r="E99" t="n">
-        <v>1.135419594299972</v>
+        <v>1.137258048633651</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2191232510642322</v>
+        <v>0.220661067745743</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1340771956409143</v>
+        <v>-0.1361611969575164</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1591765507411207</v>
       </c>
       <c r="E100" t="n">
-        <v>1.048019034551509</v>
+        <v>1.04954583309917</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2310842223669962</v>
+        <v>0.2326062988572939</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1486526127041587</v>
+        <v>-0.1506657831603023</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1657691689781872</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9581393946869968</v>
+        <v>0.9594222202708569</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2226742382018866</v>
+        <v>0.2248873090864353</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1617626179654721</v>
+        <v>-0.163919024161654</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1832361159144136</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8980874171711331</v>
+        <v>0.8992663574929872</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2292111396126483</v>
+        <v>0.2314210624589545</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1865439750112301</v>
+        <v>-0.1888609311577847</v>
       </c>
     </row>
   </sheetData>
